--- a/Basic assessment/M_yeastGEM_v8__46__3__46__0_sub_use_SolveCompartmentIssue.xlsx
+++ b/Basic assessment/M_yeastGEM_v8__46__3__46__0_sub_use_SolveCompartmentIssue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="357">
   <si>
     <t>Name_in_Model</t>
   </si>
@@ -37,6 +37,9 @@
     <t>(S)-malate</t>
   </si>
   <si>
+    <t>2',3'-cyclic AMP</t>
+  </si>
+  <si>
     <t>2'-deoxyadenosine</t>
   </si>
   <si>
@@ -49,6 +52,18 @@
     <t>2-oxoglutarate</t>
   </si>
   <si>
+    <t>2-phospho-D-glyceric acid</t>
+  </si>
+  <si>
+    <t>3',5'-cyclic AMP</t>
+  </si>
+  <si>
+    <t>3',5'-cyclic CMP</t>
+  </si>
+  <si>
+    <t>3',5'-cyclic GMP</t>
+  </si>
+  <si>
     <t>3-phospho-serine</t>
   </si>
   <si>
@@ -73,15 +88,27 @@
     <t>adenosine</t>
   </si>
   <si>
+    <t>adenosine 2'-phosphate</t>
+  </si>
+  <si>
     <t>allantoin</t>
   </si>
   <si>
+    <t>alpha-D-glucosamine 6-phosphate</t>
+  </si>
+  <si>
     <t>ammonium</t>
   </si>
   <si>
     <t>AMP</t>
   </si>
   <si>
+    <t>carbamoyl phosphate</t>
+  </si>
+  <si>
+    <t>choline phosphate</t>
+  </si>
+  <si>
     <t>citrate</t>
   </si>
   <si>
@@ -100,6 +127,9 @@
     <t>D-fructose</t>
   </si>
   <si>
+    <t>D-fructose 6-phosphate</t>
+  </si>
+  <si>
     <t>D-galactose</t>
   </si>
   <si>
@@ -109,9 +139,21 @@
     <t>D-glucose</t>
   </si>
   <si>
+    <t>D-glucose 1-phosphate</t>
+  </si>
+  <si>
+    <t>D-glucose 6-phosphate</t>
+  </si>
+  <si>
     <t>D-mannose</t>
   </si>
   <si>
+    <t>D-mannose 1-phosphate</t>
+  </si>
+  <si>
+    <t>D-mannose 6-phosphate</t>
+  </si>
+  <si>
     <t>D-ribose</t>
   </si>
   <si>
@@ -145,6 +187,9 @@
     <t>glycerol</t>
   </si>
   <si>
+    <t>glycerol 3-phosphate</t>
+  </si>
+  <si>
     <t>glycerone</t>
   </si>
   <si>
@@ -253,6 +298,9 @@
     <t>myo-inositol</t>
   </si>
   <si>
+    <t>myo-inositol hexakisphosphate</t>
+  </si>
+  <si>
     <t>O-phosphoethanolamine</t>
   </si>
   <si>
@@ -277,6 +325,9 @@
     <t>sulphate</t>
   </si>
   <si>
+    <t>taurocholic acid</t>
+  </si>
+  <si>
     <t>thymidine</t>
   </si>
   <si>
@@ -316,6 +367,12 @@
     <t>5-oxo-L-proline</t>
   </si>
   <si>
+    <t>2-deoxy-D-glucose 6-phosphate</t>
+  </si>
+  <si>
+    <t>L-Methionine S-oxide</t>
+  </si>
+  <si>
     <t>D-gluconate</t>
   </si>
   <si>
@@ -355,6 +412,15 @@
     <t>Ala-Thr</t>
   </si>
   <si>
+    <t>thymidine 3'-monophosphate</t>
+  </si>
+  <si>
+    <t>thymidine 5'-monophosphate</t>
+  </si>
+  <si>
+    <t>glycerol 1-phosphate</t>
+  </si>
+  <si>
     <t>Ala-His</t>
   </si>
   <si>
@@ -367,21 +433,33 @@
     <t>Gly-Glu</t>
   </si>
   <si>
+    <t>glycerol 2-phosphate(2-)</t>
+  </si>
+  <si>
     <t>O-phospho-L-threonine</t>
   </si>
   <si>
+    <t>guanosine 2'-monophosphate</t>
+  </si>
+  <si>
     <t>3'-GMP</t>
   </si>
   <si>
     <t>2-phosphoglycolate</t>
   </si>
   <si>
+    <t>cysteamine S-phosphate</t>
+  </si>
+  <si>
     <t>O-phosphonatooxy-D-serine(2-)</t>
   </si>
   <si>
     <t>2-aminobutanoate</t>
   </si>
   <si>
+    <t>uridine 2'-phosphate</t>
+  </si>
+  <si>
     <t>3'-UMP</t>
   </si>
   <si>
@@ -394,12 +472,21 @@
     <t>N(omega)-phospho-L-arginine</t>
   </si>
   <si>
+    <t>2',3'-cyclic GMP</t>
+  </si>
+  <si>
     <t>O(4)-phospho-L-tyrosine</t>
   </si>
   <si>
     <t>triphosphate</t>
   </si>
   <si>
+    <t>cytidine 2'-phosphate</t>
+  </si>
+  <si>
+    <t>2',3'-cyclic UMP</t>
+  </si>
+  <si>
     <t>3-sulfino-L-alanine</t>
   </si>
   <si>
@@ -427,6 +514,12 @@
     <t>Ala-Asp</t>
   </si>
   <si>
+    <t>methyl alpha-D-glucopyranoside</t>
+  </si>
+  <si>
+    <t>2',3'-cyclic CMP</t>
+  </si>
+  <si>
     <t>D-tagatose</t>
   </si>
   <si>
@@ -463,10 +556,13 @@
     <t>s_0066[c]</t>
   </si>
   <si>
+    <t>s_0131[c]</t>
+  </si>
+  <si>
     <t>s_0132[c]</t>
   </si>
   <si>
-    <t>s_0153[c]</t>
+    <t>s_0152[c]</t>
   </si>
   <si>
     <t>s_0178[c]</t>
@@ -475,6 +571,18 @@
     <t>s_0180[c]</t>
   </si>
   <si>
+    <t>s_0188[c]</t>
+  </si>
+  <si>
+    <t>s_0192[c]</t>
+  </si>
+  <si>
+    <t>s_0193[c]</t>
+  </si>
+  <si>
+    <t>s_0195[c]</t>
+  </si>
+  <si>
     <t>s_0259[c]</t>
   </si>
   <si>
@@ -496,334 +604,406 @@
     <t>s_0383[c]</t>
   </si>
   <si>
-    <t>s_0390[c]</t>
+    <t>s_0386[c]</t>
+  </si>
+  <si>
+    <t>s_0389[c]</t>
   </si>
   <si>
     <t>s_0407[c]</t>
   </si>
   <si>
+    <t>s_0412[c]</t>
+  </si>
+  <si>
     <t>s_0419[c]</t>
   </si>
   <si>
     <t>s_0423[c]</t>
   </si>
   <si>
+    <t>s_0455[c]</t>
+  </si>
+  <si>
+    <t>s_0514[c]</t>
+  </si>
+  <si>
     <t>s_0522[c]</t>
   </si>
   <si>
     <t>s_0526[c]</t>
   </si>
   <si>
+    <t>s_0543[c]</t>
+  </si>
+  <si>
+    <t>s_0545[c]</t>
+  </si>
+  <si>
+    <t>s_0548[c]</t>
+  </si>
+  <si>
+    <t>s_0553[c]</t>
+  </si>
+  <si>
+    <t>s_0557[c]</t>
+  </si>
+  <si>
+    <t>s_0558[c]</t>
+  </si>
+  <si>
+    <t>s_0561[c]</t>
+  </si>
+  <si>
+    <t>s_0563[c]</t>
+  </si>
+  <si>
+    <t>s_0567[c]</t>
+  </si>
+  <si>
+    <t>s_0568[c]</t>
+  </si>
+  <si>
+    <t>s_0571[c]</t>
+  </si>
+  <si>
+    <t>s_0573[c]</t>
+  </si>
+  <si>
+    <t>s_0574[c]</t>
+  </si>
+  <si>
+    <t>s_0575[c]</t>
+  </si>
+  <si>
+    <t>s_0578[c]</t>
+  </si>
+  <si>
+    <t>s_0595[c]</t>
+  </si>
+  <si>
+    <t>s_0633[c]</t>
+  </si>
+  <si>
+    <t>s_0680[c]</t>
+  </si>
+  <si>
+    <t>s_0683[c]</t>
+  </si>
+  <si>
+    <t>s_0722[c]</t>
+  </si>
+  <si>
+    <t>s_0725[c]</t>
+  </si>
+  <si>
+    <t>s_0734[c]</t>
+  </si>
+  <si>
+    <t>s_0750[c]</t>
+  </si>
+  <si>
+    <t>s_0765[c]</t>
+  </si>
+  <si>
+    <t>s_0767[c]</t>
+  </si>
+  <si>
+    <t>s_0771[c]</t>
+  </si>
+  <si>
+    <t>s_0773[c]</t>
+  </si>
+  <si>
+    <t>s_0779[c]</t>
+  </si>
+  <si>
+    <t>s_0782[c]</t>
+  </si>
+  <si>
+    <t>s_0787[c]</t>
+  </si>
+  <si>
+    <t>s_0790[c]</t>
+  </si>
+  <si>
+    <t>s_0856[c]</t>
+  </si>
+  <si>
+    <t>s_0955[c]</t>
+  </si>
+  <si>
+    <t>s_0961[c]</t>
+  </si>
+  <si>
+    <t>s_0963[c]</t>
+  </si>
+  <si>
+    <t>s_0965[c]</t>
+  </si>
+  <si>
+    <t>s_0969[c]</t>
+  </si>
+  <si>
+    <t>s_0973[c]</t>
+  </si>
+  <si>
+    <t>s_0979[c]</t>
+  </si>
+  <si>
+    <t>s_0981[c]</t>
+  </si>
+  <si>
+    <t>s_0983[c]</t>
+  </si>
+  <si>
+    <t>s_0991[c]</t>
+  </si>
+  <si>
+    <t>s_0999[c]</t>
+  </si>
+  <si>
+    <t>s_1003[c]</t>
+  </si>
+  <si>
+    <t>s_1006[c]</t>
+  </si>
+  <si>
+    <t>s_1014[c]</t>
+  </si>
+  <si>
+    <t>s_1016[c]</t>
+  </si>
+  <si>
+    <t>s_1021[c]</t>
+  </si>
+  <si>
+    <t>s_1025[c]</t>
+  </si>
+  <si>
+    <t>s_1029[c]</t>
+  </si>
+  <si>
+    <t>s_1032[c]</t>
+  </si>
+  <si>
+    <t>s_1035[c]</t>
+  </si>
+  <si>
+    <t>s_1039[c]</t>
+  </si>
+  <si>
+    <t>s_1043[c]</t>
+  </si>
+  <si>
+    <t>s_1045[c]</t>
+  </si>
+  <si>
+    <t>s_1048[c]</t>
+  </si>
+  <si>
+    <t>s_1051[c]</t>
+  </si>
+  <si>
+    <t>s_1056[c]</t>
+  </si>
+  <si>
+    <t>s_1105[c]</t>
+  </si>
+  <si>
+    <t>s_1107[c]</t>
+  </si>
+  <si>
+    <t>s_1153[c]</t>
+  </si>
+  <si>
+    <t>s_1158[c]</t>
+  </si>
+  <si>
+    <t>s_1239[c]</t>
+  </si>
+  <si>
+    <t>s_1266[c]</t>
+  </si>
+  <si>
+    <t>s_1322[c]</t>
+  </si>
+  <si>
+    <t>s_1360[c]</t>
+  </si>
+  <si>
+    <t>s_1389[c]</t>
+  </si>
+  <si>
+    <t>s_1399[c]</t>
+  </si>
+  <si>
+    <t>s_1458[c]</t>
+  </si>
+  <si>
+    <t>s_1467[c]</t>
+  </si>
+  <si>
+    <t>s_1473[c]</t>
+  </si>
+  <si>
+    <t>s_1493[c]</t>
+  </si>
+  <si>
+    <t>s_1520[c]</t>
+  </si>
+  <si>
+    <t>s_1545[c]</t>
+  </si>
+  <si>
+    <t>s_1550[c]</t>
+  </si>
+  <si>
+    <t>s_1552[c]</t>
+  </si>
+  <si>
+    <t>s_1556[c]</t>
+  </si>
+  <si>
+    <t>s_1563[c]</t>
+  </si>
+  <si>
+    <t>s_1566[c]</t>
+  </si>
+  <si>
+    <t>s_2828[c]</t>
+  </si>
+  <si>
+    <t>s_2829[c]</t>
+  </si>
+  <si>
+    <t>s_3750[c]</t>
+  </si>
+  <si>
+    <t>s_3805[c]</t>
+  </si>
+  <si>
+    <t>s_3810[c]</t>
+  </si>
+  <si>
+    <t>s_3814[c]</t>
+  </si>
+  <si>
+    <t>s_3837[c]</t>
+  </si>
+  <si>
+    <t>s_3875[c]</t>
+  </si>
+  <si>
+    <t>s_3904[c]</t>
+  </si>
+  <si>
+    <t>s_3914[c]</t>
+  </si>
+  <si>
+    <t>s_3935[c]</t>
+  </si>
+  <si>
+    <t>s_3953[c]</t>
+  </si>
+  <si>
+    <t>s_3962[c]</t>
+  </si>
+  <si>
+    <t>s_3997[c]</t>
+  </si>
+  <si>
+    <t>s_3998[c]</t>
+  </si>
+  <si>
+    <t>s_4000[c]</t>
+  </si>
+  <si>
+    <t>s_4017[c]</t>
+  </si>
+  <si>
+    <t>s_4035[c]</t>
+  </si>
+  <si>
+    <t>s_4038[c]</t>
+  </si>
+  <si>
+    <t>s_4041[c]</t>
+  </si>
+  <si>
+    <t>s_4044[c]</t>
+  </si>
+  <si>
+    <t>s_4046[c]</t>
+  </si>
+  <si>
+    <t>s_4048[c]</t>
+  </si>
+  <si>
+    <t>s_4051[c]</t>
+  </si>
+  <si>
+    <t>s_4054[c]</t>
+  </si>
+  <si>
+    <t>s_4057[c]</t>
+  </si>
+  <si>
+    <t>s_4060[c]</t>
+  </si>
+  <si>
+    <t>s_4062[c]</t>
+  </si>
+  <si>
+    <t>s_4064[c]</t>
+  </si>
+  <si>
+    <t>s_4066[c]</t>
+  </si>
+  <si>
+    <t>s_4068[c]</t>
+  </si>
+  <si>
+    <t>s_4071[c]</t>
+  </si>
+  <si>
+    <t>s_4072[c]</t>
+  </si>
+  <si>
+    <t>s_4077[c]</t>
+  </si>
+  <si>
+    <t>s_4079[c]</t>
+  </si>
+  <si>
+    <t>s_4081[c]</t>
+  </si>
+  <si>
+    <t>s_4083[c]</t>
+  </si>
+  <si>
+    <t>s_4086[c]</t>
+  </si>
+  <si>
+    <t>s_4088[c]</t>
+  </si>
+  <si>
+    <t>s_4092[c]</t>
+  </si>
+  <si>
+    <t>s_4094[c]</t>
+  </si>
+  <si>
+    <t>s_4096[c]</t>
+  </si>
+  <si>
+    <t>s_4098[c]</t>
+  </si>
+  <si>
     <t>s_4100[c]</t>
   </si>
   <si>
-    <t>s_0545[c]</t>
-  </si>
-  <si>
-    <t>s_0548[c]</t>
-  </si>
-  <si>
-    <t>s_0557[c]</t>
-  </si>
-  <si>
-    <t>s_0558[c]</t>
-  </si>
-  <si>
-    <t>s_0561[c]</t>
-  </si>
-  <si>
-    <t>s_0568[c]</t>
-  </si>
-  <si>
-    <t>s_0574[c]</t>
-  </si>
-  <si>
-    <t>s_0575[c]</t>
-  </si>
-  <si>
-    <t>s_0578[c]</t>
-  </si>
-  <si>
-    <t>s_0595[c]</t>
-  </si>
-  <si>
-    <t>s_0633[c]</t>
-  </si>
-  <si>
-    <t>s_0680[c]</t>
-  </si>
-  <si>
-    <t>s_0683[c]</t>
-  </si>
-  <si>
-    <t>s_0722[c]</t>
-  </si>
-  <si>
-    <t>s_0725[c]</t>
-  </si>
-  <si>
-    <t>s_0734[c]</t>
-  </si>
-  <si>
-    <t>s_0754[c]</t>
-  </si>
-  <si>
-    <t>s_4062[c]</t>
-  </si>
-  <si>
-    <t>s_0771[c]</t>
-  </si>
-  <si>
-    <t>s_0773[c]</t>
-  </si>
-  <si>
-    <t>s_0779[c]</t>
-  </si>
-  <si>
-    <t>s_0782[c]</t>
-  </si>
-  <si>
-    <t>s_0787[c]</t>
-  </si>
-  <si>
-    <t>s_4066[c]</t>
-  </si>
-  <si>
-    <t>s_0856[c]</t>
-  </si>
-  <si>
-    <t>s_0955[c]</t>
-  </si>
-  <si>
-    <t>s_0961[c]</t>
-  </si>
-  <si>
-    <t>s_0963[c]</t>
-  </si>
-  <si>
-    <t>s_0965[c]</t>
-  </si>
-  <si>
-    <t>s_0969[c]</t>
-  </si>
-  <si>
-    <t>s_0978[c]</t>
-  </si>
-  <si>
-    <t>s_0979[c]</t>
-  </si>
-  <si>
-    <t>s_0981[c]</t>
-  </si>
-  <si>
-    <t>s_0983[c]</t>
-  </si>
-  <si>
-    <t>s_0991[c]</t>
-  </si>
-  <si>
-    <t>s_0999[c]</t>
-  </si>
-  <si>
-    <t>s_1003[c]</t>
-  </si>
-  <si>
-    <t>s_1006[c]</t>
-  </si>
-  <si>
-    <t>s_1014[c]</t>
-  </si>
-  <si>
-    <t>s_1016[c]</t>
-  </si>
-  <si>
-    <t>s_1021[c]</t>
-  </si>
-  <si>
-    <t>s_1025[c]</t>
-  </si>
-  <si>
-    <t>s_3807[c]</t>
-  </si>
-  <si>
-    <t>s_1032[c]</t>
-  </si>
-  <si>
-    <t>s_1035[c]</t>
-  </si>
-  <si>
-    <t>s_1039[c]</t>
-  </si>
-  <si>
-    <t>s_1043[c]</t>
-  </si>
-  <si>
-    <t>s_1045[c]</t>
-  </si>
-  <si>
-    <t>s_1048[c]</t>
-  </si>
-  <si>
-    <t>s_1051[c]</t>
-  </si>
-  <si>
-    <t>s_1056[c]</t>
-  </si>
-  <si>
-    <t>s_1105[c]</t>
-  </si>
-  <si>
-    <t>s_1107[c]</t>
-  </si>
-  <si>
-    <t>s_1158[c]</t>
-  </si>
-  <si>
-    <t>s_1239[c]</t>
-  </si>
-  <si>
-    <t>s_1266[c]</t>
-  </si>
-  <si>
-    <t>s_1322[c]</t>
-  </si>
-  <si>
-    <t>s_1360[c]</t>
-  </si>
-  <si>
-    <t>s_1389[c]</t>
-  </si>
-  <si>
-    <t>s_1399[c]</t>
-  </si>
-  <si>
-    <t>s_1458[c]</t>
-  </si>
-  <si>
-    <t>s_1467[c]</t>
-  </si>
-  <si>
-    <t>s_4046[c]</t>
-  </si>
-  <si>
-    <t>s_1520[c]</t>
-  </si>
-  <si>
-    <t>s_1545[c]</t>
-  </si>
-  <si>
-    <t>s_1550[c]</t>
-  </si>
-  <si>
-    <t>s_1552[c]</t>
-  </si>
-  <si>
-    <t>s_4081[c]</t>
-  </si>
-  <si>
-    <t>s_1563[c]</t>
-  </si>
-  <si>
-    <t>s_1566[c]</t>
-  </si>
-  <si>
-    <t>s_2828[c]</t>
-  </si>
-  <si>
-    <t>s_2829[c]</t>
-  </si>
-  <si>
-    <t>s_3750[c]</t>
-  </si>
-  <si>
-    <t>s_3805[c]</t>
-  </si>
-  <si>
-    <t>s_3810[c]</t>
-  </si>
-  <si>
-    <t>s_3875[c]</t>
-  </si>
-  <si>
-    <t>s_3904[c]</t>
-  </si>
-  <si>
-    <t>s_3914[c]</t>
-  </si>
-  <si>
-    <t>s_3935[c]</t>
-  </si>
-  <si>
-    <t>s_3953[c]</t>
-  </si>
-  <si>
-    <t>s_3962[c]</t>
-  </si>
-  <si>
-    <t>s_3997[c]</t>
-  </si>
-  <si>
-    <t>s_3998[c]</t>
-  </si>
-  <si>
-    <t>s_4000[c]</t>
-  </si>
-  <si>
-    <t>s_4017[c]</t>
-  </si>
-  <si>
-    <t>s_4035[c]</t>
-  </si>
-  <si>
-    <t>s_4038[c]</t>
-  </si>
-  <si>
-    <t>s_4041[c]</t>
-  </si>
-  <si>
-    <t>s_4051[c]</t>
-  </si>
-  <si>
-    <t>s_4054[c]</t>
-  </si>
-  <si>
-    <t>s_4057[c]</t>
-  </si>
-  <si>
-    <t>s_4060[c]</t>
-  </si>
-  <si>
-    <t>s_4064[c]</t>
-  </si>
-  <si>
-    <t>s_4068[c]</t>
-  </si>
-  <si>
-    <t>s_4071[c]</t>
-  </si>
-  <si>
-    <t>s_4077[c]</t>
-  </si>
-  <si>
-    <t>s_4079[c]</t>
-  </si>
-  <si>
-    <t>s_4083[c]</t>
-  </si>
-  <si>
-    <t>s_4086[c]</t>
-  </si>
-  <si>
-    <t>s_4088[c]</t>
-  </si>
-  <si>
-    <t>s_4092[c]</t>
-  </si>
-  <si>
-    <t>s_4096[c]</t>
-  </si>
-  <si>
-    <t>s_4098[c]</t>
+    <t>s_4102[c]</t>
   </si>
   <si>
     <t>s_4104[c]</t>
@@ -851,6 +1031,12 @@
   </si>
   <si>
     <t>s_4120[c]</t>
+  </si>
+  <si>
+    <t>s_4122[c]</t>
+  </si>
+  <si>
+    <t>s_4126[c]</t>
   </si>
   <si>
     <t>s_4128[c]</t>
@@ -1256,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,16 +1473,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1307,16 +1493,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1327,16 +1513,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1347,16 +1533,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,16 +1553,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1387,16 +1570,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1407,16 +1587,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1427,16 +1607,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1447,16 +1627,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F10" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1467,16 +1644,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1487,16 +1661,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1507,16 +1678,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1524,19 +1695,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1544,19 +1715,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1564,19 +1732,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1584,19 +1752,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1604,19 +1772,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1624,19 +1792,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1644,19 +1812,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1664,19 +1832,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1687,16 +1855,16 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1707,16 +1875,16 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1727,16 +1895,16 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1747,16 +1915,16 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1767,16 +1935,16 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1787,16 +1955,16 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1807,16 +1975,16 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1827,16 +1995,16 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1847,16 +2015,16 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1867,16 +2035,16 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1887,16 +2055,16 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1907,16 +2075,16 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1927,16 +2095,16 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1947,16 +2115,16 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1967,16 +2135,13 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E36" t="s">
-        <v>294</v>
-      </c>
-      <c r="F36" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1984,19 +2149,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2004,19 +2169,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E38" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2024,19 +2189,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2044,19 +2209,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2064,19 +2229,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2084,19 +2249,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D42" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2107,16 +2272,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2127,16 +2292,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2147,16 +2312,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2167,16 +2332,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2187,16 +2352,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2207,16 +2372,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2227,16 +2392,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2247,16 +2412,16 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2264,19 +2429,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2284,19 +2449,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E52" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2304,19 +2469,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2324,19 +2489,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="D54" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2344,19 +2509,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2364,19 +2529,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E56" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2384,19 +2549,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2404,19 +2569,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2424,19 +2589,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2444,19 +2609,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2464,19 +2626,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2484,19 +2646,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2504,19 +2663,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2524,19 +2683,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2544,16 +2703,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E65" t="s">
-        <v>294</v>
+        <v>356</v>
+      </c>
+      <c r="F65" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2561,19 +2723,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F66" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2581,19 +2743,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F67" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2601,19 +2763,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E68" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2621,19 +2783,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F69" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2641,19 +2803,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="D70" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E70" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2661,19 +2823,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2681,19 +2843,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D72" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E72" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F72" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2701,19 +2863,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F73" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2721,19 +2883,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F74" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2741,19 +2903,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="D75" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2761,19 +2923,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E76" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2781,19 +2943,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F77" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2801,19 +2963,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E78" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F78" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2821,19 +2983,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F79" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2841,19 +3003,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F80" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2861,19 +3023,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F81" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2881,19 +3043,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
-      </c>
-      <c r="F82" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2901,19 +3060,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2921,19 +3080,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D84" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2941,19 +3100,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E85" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F85" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2961,19 +3120,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2981,19 +3140,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E87" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F87" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3001,19 +3160,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3021,19 +3180,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E89" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3041,19 +3200,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3061,19 +3220,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="D91" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E91" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3081,19 +3240,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E92" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F92" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3101,19 +3260,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E93" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F93" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3121,19 +3280,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3141,19 +3300,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="D95" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F95" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3161,19 +3320,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E96" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F96" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3181,19 +3340,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F97" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3201,19 +3360,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3221,19 +3380,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D99" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E99" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3241,19 +3400,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D100" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E100" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3261,19 +3420,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D101" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3281,19 +3440,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D102" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F102" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3301,19 +3460,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F103" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3321,19 +3480,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="D104" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F104" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3341,19 +3500,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D105" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E105" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F105" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3361,19 +3520,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="D106" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E106" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F106" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3381,19 +3540,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C107" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D107" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E107" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F107" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3401,19 +3560,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="D108" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E108" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F108" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3421,19 +3580,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D109" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F109" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3444,16 +3603,16 @@
         <v>87</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E110" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F110" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3461,19 +3620,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F111" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3481,19 +3640,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="D112" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E112" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F112" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3501,19 +3660,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E113" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F113" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3524,16 +3683,16 @@
         <v>90</v>
       </c>
       <c r="C114" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E114" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F114" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3544,16 +3703,16 @@
         <v>91</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E115" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F115" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3564,16 +3723,13 @@
         <v>92</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D116" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E116" t="s">
-        <v>294</v>
-      </c>
-      <c r="F116" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3581,19 +3737,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D117" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E117" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F117" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3601,19 +3757,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D118" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E118" t="s">
-        <v>294</v>
-      </c>
-      <c r="F118" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3621,19 +3774,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D119" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E119" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F119" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3641,19 +3794,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E120" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F120" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3661,19 +3814,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="D121" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E121" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F121" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3681,19 +3834,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="D122" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E122" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F122" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3701,19 +3854,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E123" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F123" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3724,16 +3877,16 @@
         <v>99</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E124" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F124" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3741,19 +3894,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E125" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F125" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3761,19 +3914,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D126" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E126" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F126" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3781,19 +3934,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D127" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="E127" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F127" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3801,19 +3954,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="D128" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="E128" t="s">
-        <v>294</v>
-      </c>
-      <c r="F128" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3821,19 +3971,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C129" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="D129" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E129" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F129" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3841,19 +3991,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C130" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D130" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E130" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F130" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3861,19 +4011,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="D131" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E131" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F131" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3881,19 +4031,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C132" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D132" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E132" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F132" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3901,19 +4051,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C133" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D133" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E133" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F133" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3921,19 +4071,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D134" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E134" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F134" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3941,19 +4091,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="D135" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E135" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F135" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3961,19 +4111,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C136" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="D136" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E136" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F136" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3981,19 +4131,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C137" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D137" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E137" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F137" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4001,19 +4151,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C138" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="D138" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E138" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F138" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4021,19 +4171,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C139" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="D139" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E139" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F139" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4041,19 +4191,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C140" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="D140" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E140" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F140" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4061,19 +4211,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C141" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="D141" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E141" t="s">
-        <v>293</v>
-      </c>
-      <c r="F141" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4081,19 +4228,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C142" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="D142" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E142" t="s">
-        <v>293</v>
-      </c>
-      <c r="F142" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4101,19 +4245,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C143" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D143" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
-      </c>
-      <c r="F143" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4121,19 +4262,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C144" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="D144" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E144" t="s">
-        <v>293</v>
-      </c>
-      <c r="F144" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4141,19 +4279,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C145" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="D145" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E145" t="s">
-        <v>293</v>
-      </c>
-      <c r="F145" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4161,19 +4296,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C146" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="D146" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="E146" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F146" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4184,16 +4319,16 @@
         <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="D147" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F147" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4204,16 +4339,13 @@
         <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D148" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4224,16 +4356,13 @@
         <v>120</v>
       </c>
       <c r="C149" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="D149" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4241,19 +4370,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C150" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4261,19 +4387,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C151" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="D151" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4281,19 +4404,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D152" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4304,16 +4424,16 @@
         <v>123</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="D153" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F153" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4321,19 +4441,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C154" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="D154" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4341,19 +4461,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="D155" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
-      </c>
-      <c r="F155" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4361,19 +4478,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C156" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="D156" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
-      </c>
-      <c r="F156" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4381,19 +4495,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D157" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F157" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4401,19 +4515,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D158" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
-      </c>
-      <c r="F158" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4421,19 +4532,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C159" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D159" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
-      </c>
-      <c r="F159" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4441,19 +4549,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C160" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="D160" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
-      </c>
-      <c r="F160" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4461,19 +4566,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C161" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F161" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4481,16 +4586,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C162" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="D162" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>355</v>
+      </c>
+      <c r="F162" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4498,16 +4606,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C163" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="D163" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E163" t="s">
-        <v>293</v>
+        <v>355</v>
+      </c>
+      <c r="F163" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4515,19 +4626,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C164" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D164" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="E164" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F164" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4535,19 +4646,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C165" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D165" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E165" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F165" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4555,19 +4666,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="D166" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E166" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F166" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4575,19 +4686,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C167" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E167" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F167" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4595,19 +4706,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C168" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="D168" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E168" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F168" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4615,19 +4726,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C169" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="D169" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E169" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F169" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4635,19 +4746,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C170" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D170" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E170" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F170" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4655,19 +4766,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C171" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="D171" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="E171" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F171" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4675,19 +4786,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C172" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="D172" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E172" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F172" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4695,19 +4806,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C173" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="D173" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E173" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F173" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4715,19 +4826,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="D174" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E174" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F174" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4735,19 +4846,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C175" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="D175" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E175" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F175" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4755,19 +4866,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C176" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="D176" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="E176" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F176" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4778,16 +4889,16 @@
         <v>145</v>
       </c>
       <c r="C177" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D177" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E177" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F177" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4798,13 +4909,684 @@
         <v>146</v>
       </c>
       <c r="C178" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="D178" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E178" t="s">
-        <v>293</v>
+        <v>355</v>
+      </c>
+      <c r="F178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>147</v>
+      </c>
+      <c r="C179" t="s">
+        <v>320</v>
+      </c>
+      <c r="D179" t="s">
+        <v>352</v>
+      </c>
+      <c r="E179" t="s">
+        <v>355</v>
+      </c>
+      <c r="F179" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>148</v>
+      </c>
+      <c r="C180" t="s">
+        <v>321</v>
+      </c>
+      <c r="D180" t="s">
+        <v>352</v>
+      </c>
+      <c r="E180" t="s">
+        <v>355</v>
+      </c>
+      <c r="F180" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" t="s">
+        <v>322</v>
+      </c>
+      <c r="D181" t="s">
+        <v>353</v>
+      </c>
+      <c r="E181" t="s">
+        <v>355</v>
+      </c>
+      <c r="F181" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" t="s">
+        <v>322</v>
+      </c>
+      <c r="D182" t="s">
+        <v>354</v>
+      </c>
+      <c r="E182" t="s">
+        <v>355</v>
+      </c>
+      <c r="F182" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" t="s">
+        <v>323</v>
+      </c>
+      <c r="D183" t="s">
+        <v>352</v>
+      </c>
+      <c r="E183" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" t="s">
+        <v>324</v>
+      </c>
+      <c r="D184" t="s">
+        <v>352</v>
+      </c>
+      <c r="E184" t="s">
+        <v>355</v>
+      </c>
+      <c r="F184" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185" t="s">
+        <v>325</v>
+      </c>
+      <c r="D185" t="s">
+        <v>352</v>
+      </c>
+      <c r="E185" t="s">
+        <v>355</v>
+      </c>
+      <c r="F185" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>153</v>
+      </c>
+      <c r="C186" t="s">
+        <v>326</v>
+      </c>
+      <c r="D186" t="s">
+        <v>352</v>
+      </c>
+      <c r="E186" t="s">
+        <v>355</v>
+      </c>
+      <c r="F186" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>154</v>
+      </c>
+      <c r="C187" t="s">
+        <v>327</v>
+      </c>
+      <c r="D187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E187" t="s">
+        <v>355</v>
+      </c>
+      <c r="F187" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>155</v>
+      </c>
+      <c r="C188" t="s">
+        <v>328</v>
+      </c>
+      <c r="D188" t="s">
+        <v>352</v>
+      </c>
+      <c r="E188" t="s">
+        <v>355</v>
+      </c>
+      <c r="F188" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189" t="s">
+        <v>329</v>
+      </c>
+      <c r="D189" t="s">
+        <v>352</v>
+      </c>
+      <c r="E189" t="s">
+        <v>355</v>
+      </c>
+      <c r="F189" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190" t="s">
+        <v>330</v>
+      </c>
+      <c r="D190" t="s">
+        <v>354</v>
+      </c>
+      <c r="E190" t="s">
+        <v>355</v>
+      </c>
+      <c r="F190" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191" t="s">
+        <v>331</v>
+      </c>
+      <c r="D191" t="s">
+        <v>352</v>
+      </c>
+      <c r="E191" t="s">
+        <v>355</v>
+      </c>
+      <c r="F191" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>159</v>
+      </c>
+      <c r="C192" t="s">
+        <v>332</v>
+      </c>
+      <c r="D192" t="s">
+        <v>351</v>
+      </c>
+      <c r="E192" t="s">
+        <v>355</v>
+      </c>
+      <c r="F192" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" t="s">
+        <v>333</v>
+      </c>
+      <c r="D193" t="s">
+        <v>354</v>
+      </c>
+      <c r="E193" t="s">
+        <v>355</v>
+      </c>
+      <c r="F193" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>161</v>
+      </c>
+      <c r="C194" t="s">
+        <v>334</v>
+      </c>
+      <c r="D194" t="s">
+        <v>354</v>
+      </c>
+      <c r="E194" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" t="s">
+        <v>335</v>
+      </c>
+      <c r="D195" t="s">
+        <v>354</v>
+      </c>
+      <c r="E195" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>163</v>
+      </c>
+      <c r="C196" t="s">
+        <v>336</v>
+      </c>
+      <c r="D196" t="s">
+        <v>354</v>
+      </c>
+      <c r="E196" t="s">
+        <v>355</v>
+      </c>
+      <c r="F196" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>164</v>
+      </c>
+      <c r="C197" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" t="s">
+        <v>351</v>
+      </c>
+      <c r="E197" t="s">
+        <v>355</v>
+      </c>
+      <c r="F197" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C198" t="s">
+        <v>338</v>
+      </c>
+      <c r="D198" t="s">
+        <v>353</v>
+      </c>
+      <c r="E198" t="s">
+        <v>355</v>
+      </c>
+      <c r="F198" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>166</v>
+      </c>
+      <c r="C199" t="s">
+        <v>339</v>
+      </c>
+      <c r="D199" t="s">
+        <v>351</v>
+      </c>
+      <c r="E199" t="s">
+        <v>355</v>
+      </c>
+      <c r="F199" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>167</v>
+      </c>
+      <c r="C200" t="s">
+        <v>340</v>
+      </c>
+      <c r="D200" t="s">
+        <v>352</v>
+      </c>
+      <c r="E200" t="s">
+        <v>355</v>
+      </c>
+      <c r="F200" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C201" t="s">
+        <v>341</v>
+      </c>
+      <c r="D201" t="s">
+        <v>351</v>
+      </c>
+      <c r="E201" t="s">
+        <v>355</v>
+      </c>
+      <c r="F201" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>169</v>
+      </c>
+      <c r="C202" t="s">
+        <v>342</v>
+      </c>
+      <c r="D202" t="s">
+        <v>351</v>
+      </c>
+      <c r="E202" t="s">
+        <v>355</v>
+      </c>
+      <c r="F202" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>170</v>
+      </c>
+      <c r="C203" t="s">
+        <v>343</v>
+      </c>
+      <c r="D203" t="s">
+        <v>354</v>
+      </c>
+      <c r="E203" t="s">
+        <v>355</v>
+      </c>
+      <c r="F203" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>171</v>
+      </c>
+      <c r="C204" t="s">
+        <v>344</v>
+      </c>
+      <c r="D204" t="s">
+        <v>351</v>
+      </c>
+      <c r="E204" t="s">
+        <v>355</v>
+      </c>
+      <c r="F204" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>172</v>
+      </c>
+      <c r="C205" t="s">
+        <v>345</v>
+      </c>
+      <c r="D205" t="s">
+        <v>354</v>
+      </c>
+      <c r="E205" t="s">
+        <v>355</v>
+      </c>
+      <c r="F205" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>173</v>
+      </c>
+      <c r="C206" t="s">
+        <v>346</v>
+      </c>
+      <c r="D206" t="s">
+        <v>353</v>
+      </c>
+      <c r="E206" t="s">
+        <v>355</v>
+      </c>
+      <c r="F206" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>174</v>
+      </c>
+      <c r="C207" t="s">
+        <v>347</v>
+      </c>
+      <c r="D207" t="s">
+        <v>353</v>
+      </c>
+      <c r="E207" t="s">
+        <v>355</v>
+      </c>
+      <c r="F207" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>175</v>
+      </c>
+      <c r="C208" t="s">
+        <v>348</v>
+      </c>
+      <c r="D208" t="s">
+        <v>351</v>
+      </c>
+      <c r="E208" t="s">
+        <v>356</v>
+      </c>
+      <c r="F208" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>175</v>
+      </c>
+      <c r="C209" t="s">
+        <v>348</v>
+      </c>
+      <c r="D209" t="s">
+        <v>353</v>
+      </c>
+      <c r="E209" t="s">
+        <v>355</v>
+      </c>
+      <c r="F209" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>176</v>
+      </c>
+      <c r="C210" t="s">
+        <v>349</v>
+      </c>
+      <c r="D210" t="s">
+        <v>351</v>
+      </c>
+      <c r="E210" t="s">
+        <v>356</v>
+      </c>
+      <c r="F210" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>176</v>
+      </c>
+      <c r="C211" t="s">
+        <v>349</v>
+      </c>
+      <c r="D211" t="s">
+        <v>353</v>
+      </c>
+      <c r="E211" t="s">
+        <v>355</v>
+      </c>
+      <c r="F211" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>177</v>
+      </c>
+      <c r="C212" t="s">
+        <v>350</v>
+      </c>
+      <c r="D212" t="s">
+        <v>354</v>
+      </c>
+      <c r="E212" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
